--- a/Sandeel Data.xlsx
+++ b/Sandeel Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60d52dd049abb4b4/Pictures/Documents/MSc_Seal_SIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B2636446-E5E0-42E5-A412-A3E88A989AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11E622C-0B08-4F7C-8CA3-FE0CE98E5E35}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{B2636446-E5E0-42E5-A412-A3E88A989AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B01E72-DED9-4A97-9F8D-45196637A4F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E5F5977-9C99-4546-B4A0-510B1158BE21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>Hyperoplus immaculatus</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Ammodytes marinus</t>
   </si>
   <si>
-    <t>St. Kilda</t>
-  </si>
-  <si>
     <t>d15N (or mean)</t>
   </si>
   <si>
@@ -92,13 +89,25 @@
     <t>Ammodytes tobianus</t>
   </si>
   <si>
-    <t>2005-2006</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
     <t>Das et al., 2003 https://www.int-res.com/articles/meps2003/263/m263p287.pdf</t>
+  </si>
+  <si>
+    <t>2001-2002</t>
+  </si>
+  <si>
+    <t>Hyperoplus lanceolatus</t>
+  </si>
+  <si>
+    <t>2001-2001</t>
+  </si>
+  <si>
+    <t>Foula</t>
+  </si>
+  <si>
+    <t>Bearhop et al., 1999 https://www.jstor.org/stable/2655696?casa_token=LG2WgTk6tNcAAAAA%3AiksV4fDbxPgsqLOjlGVdUJJ0P7bQT2GQLaNpNMnLGNnCJwTF3AXbc5Txl_jvD7BSSC0uNJN28d9C6WHIQkFUHMP11eYahJprlNIsXvtzwes6bS61Ig&amp;seq=4</t>
   </si>
 </sst>
 </file>
@@ -152,6 +161,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E907F-477B-4F76-9E33-E549BD4890E7}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,19 +490,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -938,7 +951,7 @@
         <v>1995</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -956,7 +969,7 @@
         <v>0.6</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -967,7 +980,7 @@
         <v>2005</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -985,7 +998,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -996,7 +1009,7 @@
         <v>2005</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1014,18 +1027,18 @@
         <v>0.5</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -1043,7 +1056,65 @@
         <v>0.2</v>
       </c>
       <c r="I20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.3</v>
+      </c>
+      <c r="G21">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1996</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>7.9</v>
+      </c>
+      <c r="F22">
+        <v>0.95</v>
+      </c>
+      <c r="G22">
+        <v>-17.5</v>
+      </c>
+      <c r="H22">
+        <v>0.75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Sandeel Data.xlsx
+++ b/Sandeel Data.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sandeel Data.xlsx
+++ b/Sandeel Data.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sandeel Data.xlsx
+++ b/Sandeel Data.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sandeel Data.xlsx
+++ b/Sandeel Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60d52dd049abb4b4/Pictures/Documents/MSc_Seal_SIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{B2636446-E5E0-42E5-A412-A3E88A989AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B01E72-DED9-4A97-9F8D-45196637A4F6}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{B2636446-E5E0-42E5-A412-A3E88A989AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BEDCA1B-E5DA-47BE-A820-01282816269D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E5F5977-9C99-4546-B4A0-510B1158BE21}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>Das et al., 2003 https://www.int-res.com/articles/meps2003/263/m263p287.pdf</t>
   </si>
   <si>
-    <t>2001-2002</t>
-  </si>
-  <si>
     <t>Hyperoplus lanceolatus</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Bearhop et al., 1999 https://www.jstor.org/stable/2655696?casa_token=LG2WgTk6tNcAAAAA%3AiksV4fDbxPgsqLOjlGVdUJJ0P7bQT2GQLaNpNMnLGNnCJwTF3AXbc5Txl_jvD7BSSC0uNJN28d9C6WHIQkFUHMP11eYahJprlNIsXvtzwes6bS61Ig&amp;seq=4</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G21" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +951,7 @@
         <v>1995</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -1035,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1096,7 +1096,7 @@
         <v>1996</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -1114,7 +1114,7 @@
         <v>0.75</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
